--- a/Final-New/WebContent/uploadFile/FullTest/Test1/listen.xlsx
+++ b/Final-New/WebContent/uploadFile/FullTest/Test1/listen.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HuyDuc\workspace\Final-New\WebContent\uploadFile\Listening\Listen1\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="11490" windowHeight="4635"/>
   </bookViews>
@@ -14,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="25">
   <si>
     <t>1.jpg</t>
   </si>
@@ -46,33 +51,33 @@
     <t>Part 3</t>
   </si>
   <si>
+    <t>A. Adam Lambert</t>
+  </si>
+  <si>
+    <t>B. Michel Jackson</t>
+  </si>
+  <si>
+    <t>C. Shayne Ward</t>
+  </si>
+  <si>
+    <t>D.  Enrique Iglesias</t>
+  </si>
+  <si>
+    <t>3.jpg</t>
+  </si>
+  <si>
+    <t>4.jpg</t>
+  </si>
+  <si>
+    <t>5.jpg</t>
+  </si>
+  <si>
+    <t>6.jpg</t>
+  </si>
+  <si>
     <t>Part 4</t>
   </si>
   <si>
-    <t>A. Adam Lambert</t>
-  </si>
-  <si>
-    <t>B. Michel Jackson</t>
-  </si>
-  <si>
-    <t>C. Shayne Ward</t>
-  </si>
-  <si>
-    <t>D.  Enrique Iglesias</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>Who does Mr.Park chat with ?</t>
-  </si>
-  <si>
-    <t>How many topics in the Email ?</t>
-  </si>
-  <si>
     <t>A.3</t>
   </si>
   <si>
@@ -83,6 +88,12 @@
   </si>
   <si>
     <t>D.6</t>
+  </si>
+  <si>
+    <t>7.jpg</t>
+  </si>
+  <si>
+    <t>8.jpg</t>
   </si>
 </sst>
 </file>
@@ -134,6 +145,74 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -150,7 +229,7 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr val="windowText" lastClr="1F1F1F"/>
       </a:dk1>
       <a:lt1>
         <a:sysClr val="window" lastClr="FFFFFF"/>
@@ -400,7 +479,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -410,8 +489,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A44" sqref="A44"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -486,7 +565,7 @@
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
@@ -541,32 +620,32 @@
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
@@ -591,16 +670,16 @@
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
+      <c r="A37" t="s">
         <v>19</v>
       </c>
     </row>
@@ -621,7 +700,7 @@
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
@@ -640,7 +719,7 @@
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
+      <c r="A45" t="s">
         <v>4</v>
       </c>
     </row>
